--- a/pred_ohlcv/54_21/2019-10-30 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1833200.430980332</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1853195.674680332</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1979434.232880332</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1996098.232880332</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1950106.972980332</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1939471.761580332</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1948807.761580332</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1987320.810680332</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1995603.419080332</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1977032.795580332</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1952760.200280332</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2005845.882480332</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2009902.882480332</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2013918.882480332</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2003835.555880332</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2113298.563780332</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2444013.951880333</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2413586.642580333</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2391092.498880333</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2391092.498880333</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2391102.498880333</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2309233.996980333</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2309243.996980333</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2482298.683180333</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2482298.683180333</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3371339.515206335</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3694006.032706335</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3408671.681904113</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3528220.617004113</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3262352.86811152</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3220488.39351152</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3067272.65971152</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3067272.65971152</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3106104.40801152</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3191779.79751152</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3282712.70001152</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3304289.49061152</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3269785.86201152</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3228863.81521152</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3239976.72881152</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3133235.48331152</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3160992.06221152</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3137154.86661152</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3034508.76081152</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3041947.00081152</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3000712.08251152</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3002712.08251152</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2987124.12631152</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3002726.430411519</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1859200.430980332</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1833200.430980332</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1853195.674680332</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1876577.988780332</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1966443.732880332</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1988012.732880332</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1979434.232880332</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1985399.232880332</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1984898.232880332</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1996098.232880332</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1950106.972980332</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1986251.972980332</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1939471.761580332</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1948807.761580332</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1911528.761580332</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1930680.761580332</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1966982.508880332</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2006982.508880332</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1987320.810680332</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1929871.266580332</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1995603.419080332</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1977032.795580332</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2006900.835480332</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1952760.200280332</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2005845.882480332</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2009902.882480332</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2013918.882480332</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2003835.555880332</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2113298.563780332</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2183217.563780332</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2362145.449880333</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2444013.951880333</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2440853.671680333</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2391092.498880333</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2391102.498880333</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2309233.996980333</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2309243.996980333</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2560527.332880333</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3528220.617004113</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3304289.49061152</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3269785.86201152</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3228863.81521152</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3239976.72881152</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3194938.43191152</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3133235.48331152</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3160992.06221152</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3137154.86661152</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2964349.59901152</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3034508.76081152</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3007448.74641152</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2987124.12631152</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
